--- a/TorneoApp/TestTorneoApp/RegistroTest.xlsx
+++ b/TorneoApp/TestTorneoApp/RegistroTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\Zhang Fei\TorneoAdmin\TorneoApp\TestTorneoApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F70518-8DAF-4E07-80EE-DF7ABCC83553}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225B296C-5CD1-4085-A537-98EB97569344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1">
         <v>50</v>

--- a/TorneoApp/TestTorneoApp/RegistroTest.xlsx
+++ b/TorneoApp/TestTorneoApp/RegistroTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\Zhang Fei\TorneoAdmin\TorneoApp\TestTorneoApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225B296C-5CD1-4085-A537-98EB97569344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E222C249-CFFD-4209-AA55-58071D50E1AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistroTest3" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegistroTest3!$A$1:$N$25</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1056,7 +1066,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TorneoApp/TestTorneoApp/RegistroTest.xlsx
+++ b/TorneoApp/TestTorneoApp/RegistroTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\Zhang Fei\TorneoAdmin\TorneoApp\TestTorneoApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E222C249-CFFD-4209-AA55-58071D50E1AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016AC086-3BAD-4A0C-8B65-39AAB06519B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="76">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -80,12 +80,6 @@
     <t>6/20/2019 15:49:23</t>
   </si>
   <si>
-    <t>mlmariacami2@gmail.com</t>
-  </si>
-  <si>
-    <t>Camila</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
@@ -95,102 +89,39 @@
     <t>1-3 años</t>
   </si>
   <si>
-    <t>Comfenalco</t>
-  </si>
-  <si>
-    <t>Sanda, Formas</t>
-  </si>
-  <si>
-    <t>Forma sin arma</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Constanza Restrepo </t>
-  </si>
-  <si>
     <t>6/21/2019 15:49:23</t>
   </si>
   <si>
-    <t>Karol</t>
-  </si>
-  <si>
     <t>6/22/2019 15:49:23</t>
   </si>
   <si>
-    <t>Andrés</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
     <t>6/23/2019 15:49:23</t>
   </si>
   <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
     <t>6/24/2019 15:49:23</t>
   </si>
   <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
     <t>6/25/2019 15:49:23</t>
   </si>
   <si>
-    <t>Mauricio</t>
-  </si>
-  <si>
     <t>6/26/2019 15:49:23</t>
   </si>
   <si>
-    <t>Javier</t>
-  </si>
-  <si>
     <t>6/27/2019 15:49:23</t>
   </si>
   <si>
-    <t>Miguel</t>
-  </si>
-  <si>
     <t>6/28/2019 15:49:23</t>
   </si>
   <si>
-    <t>Luis Carlos</t>
-  </si>
-  <si>
     <t>6/29/2019 15:49:23</t>
   </si>
   <si>
-    <t>Juan Carlos</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Orrego</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>Jazmin</t>
-  </si>
-  <si>
-    <t>Aladdin</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
     <t>0-1 año</t>
   </si>
   <si>
@@ -200,35 +131,143 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>Mabel</t>
-  </si>
-  <si>
-    <t>Valeria</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Cesar</t>
-  </si>
-  <si>
-    <t>Andresito</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Forma sin arma, Forma con arma</t>
-  </si>
-  <si>
-    <t>Forma con arma</t>
+    <t>correo default</t>
+  </si>
+  <si>
+    <t>Femme 1</t>
+  </si>
+  <si>
+    <t>Femme 2</t>
+  </si>
+  <si>
+    <t>Femme 3</t>
+  </si>
+  <si>
+    <t>Femme 4</t>
+  </si>
+  <si>
+    <t>Femme 5</t>
+  </si>
+  <si>
+    <t>Femme 6</t>
+  </si>
+  <si>
+    <t>Femme 7</t>
+  </si>
+  <si>
+    <t>Femme 8</t>
+  </si>
+  <si>
+    <t>Femme 9</t>
+  </si>
+  <si>
+    <t>Femme 10</t>
+  </si>
+  <si>
+    <t>Femme 11</t>
+  </si>
+  <si>
+    <t>Femme 12</t>
+  </si>
+  <si>
+    <t>Femme 13</t>
+  </si>
+  <si>
+    <t>Femme 14</t>
+  </si>
+  <si>
+    <t>Femme 15</t>
+  </si>
+  <si>
+    <t>Femme 16</t>
+  </si>
+  <si>
+    <t>Femme 17</t>
+  </si>
+  <si>
+    <t>Femme 18</t>
+  </si>
+  <si>
+    <t>Femme 19</t>
+  </si>
+  <si>
+    <t>Femme 20</t>
+  </si>
+  <si>
+    <t>Man 1</t>
+  </si>
+  <si>
+    <t>Man 2</t>
+  </si>
+  <si>
+    <t>Man 3</t>
+  </si>
+  <si>
+    <t>Man 4</t>
+  </si>
+  <si>
+    <t>Man 5</t>
+  </si>
+  <si>
+    <t>Man 6</t>
+  </si>
+  <si>
+    <t>Man 7</t>
+  </si>
+  <si>
+    <t>Man 8</t>
+  </si>
+  <si>
+    <t>Man 9</t>
+  </si>
+  <si>
+    <t>Man 10</t>
+  </si>
+  <si>
+    <t>Man 11</t>
+  </si>
+  <si>
+    <t>Man 12</t>
+  </si>
+  <si>
+    <t>Man 13</t>
+  </si>
+  <si>
+    <t>Man 14</t>
+  </si>
+  <si>
+    <t>Man 15</t>
+  </si>
+  <si>
+    <t>Man 16</t>
+  </si>
+  <si>
+    <t>Man 17</t>
+  </si>
+  <si>
+    <t>Man 18</t>
+  </si>
+  <si>
+    <t>Man 19</t>
+  </si>
+  <si>
+    <t>Man 20</t>
+  </si>
+  <si>
+    <t>Acudientes</t>
+  </si>
+  <si>
+    <t>Sanda</t>
+  </si>
+  <si>
+    <t>Eps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +398,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1063,21 +1108,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1126,19 +1175,19 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
@@ -1147,22 +1196,19 @@
         <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1">
         <v>3173694664</v>
@@ -1170,19 +1216,19 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
@@ -1191,22 +1237,19 @@
         <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N3" s="1">
         <v>3173694664</v>
@@ -1214,43 +1257,40 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N4" s="1">
         <v>3173694666</v>
@@ -1258,43 +1298,40 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N5" s="1">
         <v>3173694670</v>
@@ -1302,43 +1339,40 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N6" s="1">
         <v>3173694671</v>
@@ -1346,43 +1380,40 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N7" s="1">
         <v>3173694672</v>
@@ -1390,43 +1421,40 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N8" s="1">
         <v>3173694665</v>
@@ -1434,43 +1462,40 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N9" s="1">
         <v>3173694666</v>
@@ -1478,43 +1503,40 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N10" s="1">
         <v>3173694669</v>
@@ -1525,40 +1547,37 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N11" s="1">
         <v>3173694663</v>
@@ -1569,40 +1588,37 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N12" s="1">
         <v>3173694663</v>
@@ -1610,43 +1626,40 @@
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M13" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N13" s="1">
         <v>3173694670</v>
@@ -1654,43 +1667,40 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1">
         <v>50</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N14" s="1">
         <v>3173694668</v>
@@ -1698,43 +1708,40 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1">
         <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N15" s="1">
         <v>3173694672</v>
@@ -1742,43 +1749,40 @@
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1">
         <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N16" s="1">
         <v>3173694668</v>
@@ -1786,43 +1790,40 @@
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1">
         <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N17" s="1">
         <v>3173694669</v>
@@ -1830,43 +1831,40 @@
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G18" s="1">
         <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N18" s="1">
         <v>3173694668</v>
@@ -1874,87 +1872,81 @@
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G19" s="1">
         <v>50</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N19" s="1">
         <v>3173694669</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1">
         <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N20" s="1">
         <v>3173694665</v>
@@ -1962,43 +1954,40 @@
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1">
         <v>50</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N21" s="1">
         <v>3173694665</v>
@@ -2006,43 +1995,40 @@
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="1">
-        <v>22</v>
-      </c>
-      <c r="G22" s="1">
-        <v>50</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N22" s="1">
         <v>3173694667</v>
@@ -2050,43 +2036,40 @@
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="1">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1">
-        <v>50</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N23" s="1">
         <v>3173694667</v>
@@ -2094,43 +2077,40 @@
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="1">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1">
-        <v>50</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N24" s="1">
         <v>3173694667</v>
@@ -2138,49 +2118,703 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="1">
-        <v>35</v>
-      </c>
-      <c r="G25" s="1">
-        <v>50</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="N25" s="1">
         <v>3173694667</v>
       </c>
     </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="1">
+        <v>3173694664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3173694664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42</v>
+      </c>
+      <c r="G28" s="1">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3173694666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45</v>
+      </c>
+      <c r="G29" s="1">
+        <v>50</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N29" s="1">
+        <v>3173694670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N30" s="1">
+        <v>3173694671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>50</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3173694672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1">
+        <v>50</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" s="1">
+        <v>3173694665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1">
+        <v>50</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3173694666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1">
+        <v>57</v>
+      </c>
+      <c r="G34" s="1">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3173694669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1">
+        <v>58</v>
+      </c>
+      <c r="G35" s="1">
+        <v>50</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3173694663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="1">
+        <v>3173694663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" s="1">
+        <v>3173694670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="1">
+        <v>3173694668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>50</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39" s="1">
+        <v>3173694672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20</v>
+      </c>
+      <c r="G40" s="1">
+        <v>50</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N40" s="1">
+        <v>3173694668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
+        <v>50</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N41" s="1">
+        <v>3173694669</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TorneoApp/TestTorneoApp/RegistroTest.xlsx
+++ b/TorneoApp/TestTorneoApp/RegistroTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\Zhang Fei\TorneoAdmin\TorneoApp\TestTorneoApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92792B69-9DF2-4068-8444-978535E5A546}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB50650-C823-43B8-9500-D02AC8FEE447}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="RegistroTest3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegistroTest3!$A$1:$N$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegistroTest3!$A$1:$O$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -98,9 +98,6 @@
     <t>correo default</t>
   </si>
   <si>
-    <t>Femme 1</t>
-  </si>
-  <si>
     <t>Femme 2</t>
   </si>
   <si>
@@ -123,6 +120,96 @@
   </si>
   <si>
     <t>0-1 año</t>
+  </si>
+  <si>
+    <t>Femme 5</t>
+  </si>
+  <si>
+    <t>Femme 6</t>
+  </si>
+  <si>
+    <t>6/23/2019 15:49:24</t>
+  </si>
+  <si>
+    <t>Femme 7</t>
+  </si>
+  <si>
+    <t>6/27/2019 15:49:24</t>
+  </si>
+  <si>
+    <t>Femme 8</t>
+  </si>
+  <si>
+    <t>Femme 9</t>
+  </si>
+  <si>
+    <t>Femme 10</t>
+  </si>
+  <si>
+    <t>6/23/2019 15:49:25</t>
+  </si>
+  <si>
+    <t>Femme 11</t>
+  </si>
+  <si>
+    <t>6/27/2019 15:49:25</t>
+  </si>
+  <si>
+    <t>Femme 12</t>
+  </si>
+  <si>
+    <t>Femme 13</t>
+  </si>
+  <si>
+    <t>Femme 14</t>
+  </si>
+  <si>
+    <t>6/23/2019 15:49:26</t>
+  </si>
+  <si>
+    <t>Femme 15</t>
+  </si>
+  <si>
+    <t>6/27/2019 15:49:26</t>
+  </si>
+  <si>
+    <t>Femme 16</t>
+  </si>
+  <si>
+    <t>Femme 17</t>
+  </si>
+  <si>
+    <t>Femme 18</t>
+  </si>
+  <si>
+    <t>Femme 19</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Comfenalco</t>
+  </si>
+  <si>
+    <t>Sanda, Formas</t>
+  </si>
+  <si>
+    <t>Forma sin arma</t>
+  </si>
+  <si>
+    <t>Conny</t>
+  </si>
+  <si>
+    <t>Telefono Personal</t>
+  </si>
+  <si>
+    <t>Formas</t>
+  </si>
+  <si>
+    <t>Forma sin arma, Forma con arma</t>
+  </si>
+  <si>
+    <t>Forma con arma</t>
   </si>
 </sst>
 </file>
@@ -970,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,15 +1071,16 @@
     <col min="6" max="6" width="6.28515625" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,13 +1118,16 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1135,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -1056,28 +1147,34 @@
         <v>19</v>
       </c>
       <c r="G2" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="M2" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1">
         <v>3173694664</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1182,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -1100,25 +1197,28 @@
         <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="M3" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1">
         <v>3173694664</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1141,25 +1241,28 @@
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="M4" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1">
         <v>3173694666</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1270,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -1182,26 +1285,710 @@
         <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3173694670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1">
-        <v>3173694670</v>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3173694671</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>68</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3173694673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3173694675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3173694677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3173694679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3173694681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3173694683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>71</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3173694685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3173694687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3173694689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3173694691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3173694693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3173694695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1">
+        <v>36</v>
+      </c>
+      <c r="G19" s="1">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3173694697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>37</v>
+      </c>
+      <c r="G20" s="1">
+        <v>44</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3167527488</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3173694699</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
